--- a/DoE/Calibração.xlsx
+++ b/DoE/Calibração.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/yuichi_tokumoto_student-cs_fr/Documents/USP/TCC/Code/tcc_model/SELSP_simOpt/DoE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E5CBB2-38C8-3043-AD15-17AAE7422CD5}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4620A0E9-9043-FB4C-B919-54CF2E149A57}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
   </bookViews>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -196,6 +196,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD6EBCA-F978-0F4A-AD7F-52DB3E558E13}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -530,10 +537,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -541,10 +548,10 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>20</v>
       </c>
     </row>
@@ -552,10 +559,10 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.15</v>
       </c>
     </row>
@@ -563,10 +570,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
     </row>

--- a/DoE/Calibração.xlsx
+++ b/DoE/Calibração.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/yuichi_tokumoto_student-cs_fr/Documents/USP/TCC/Code/tcc_model/SELSP_simOpt/DoE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4620A0E9-9043-FB4C-B919-54CF2E149A57}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36848BEB-588E-AE4C-8997-2547C6815ECF}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" activeTab="1" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calibração" sheetId="4" r:id="rId1"/>
+    <sheet name="Calibração (6)" sheetId="9" r:id="rId1"/>
+    <sheet name="Calibração (5)" sheetId="8" r:id="rId2"/>
+    <sheet name="Calibração (4)" sheetId="7" r:id="rId3"/>
+    <sheet name="Calibração (3)" sheetId="6" r:id="rId4"/>
+    <sheet name="Calibração (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Calibração" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="28">
   <si>
     <t>N</t>
   </si>
@@ -115,11 +120,20 @@
   <si>
     <t>Step</t>
   </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -180,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,10 +209,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD6EBCA-F978-0F4A-AD7F-52DB3E558E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AFC2A3-698E-A94E-87B6-B87098D1003D}">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -537,10 +552,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -582,8 +597,19 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>COUNTA(C3:D3)*COUNTA(C4:D4)*COUNTA(C5:D5)</f>
-        <v>8</v>
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -599,6 +625,18 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="I9">
+        <f>SUM(I14:I33)</f>
+        <v>4864</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I9/60</f>
+        <v>81.066666666666663</v>
+      </c>
+      <c r="K9" s="10">
+        <f>J9/24</f>
+        <v>3.3777777777777778</v>
+      </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="4" t="s">
@@ -614,8 +652,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>(D10-C10)/E10+1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -632,8 +669,7 @@
         <v>0.01</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G14" si="0">(D11-C11)/E11+1</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -650,8 +686,7 @@
         <v>0.05</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>13.000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -668,8 +703,7 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -686,14 +720,17 @@
         <v>0.05</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>PRODUCT(G10:G14)</f>
-        <v>112320.00000000003</v>
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <f>G15*$C$7</f>
+        <v>512</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -737,8 +774,7 @@
         <v>0.05</v>
       </c>
       <c r="G18">
-        <f>(D18-C18)/E18+1</f>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:12">
@@ -755,8 +791,7 @@
         <v>0.05</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G21" si="1">(D19-C19)/E19+1</f>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -773,8 +808,7 @@
         <v>0.05</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -791,14 +825,17 @@
         <v>0.05</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <f>PRODUCT(G18:G21)</f>
-        <v>2560000</v>
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <f>G22*$C$7</f>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:12">
@@ -829,8 +866,7 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <f>(D25-C25)/E25+1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -847,8 +883,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G32" si="2">(D26-C26)/E26+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -865,8 +900,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -883,8 +917,7 @@
         <v>0.05</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -901,8 +934,7 @@
         <v>0.5</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -919,8 +951,7 @@
         <v>0.1</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
-        <v>19.999999999999996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -937,8 +968,7 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -955,12 +985,2313 @@
         <v>0.05</v>
       </c>
       <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="9">
+        <f>PRODUCT(G25:G32)</f>
+        <v>256</v>
+      </c>
+      <c r="I33">
+        <f>G33*$C$7</f>
+        <v>4096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748C07-A183-484C-B921-AA44F0BDF9E6}">
+  <dimension ref="B1:K33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I14:I33)</f>
+        <v>6040</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I9/60</f>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="K9" s="10">
+        <f>J9/24</f>
+        <v>4.1944444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="G15" s="9">
+        <f>PRODUCT(G10:G14)</f>
+        <v>243</v>
+      </c>
+      <c r="I15">
+        <f>G15*$C$7</f>
+        <v>1944</v>
+      </c>
+      <c r="J15" s="10">
+        <f>I15/60</f>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="G22" s="9">
+        <f>PRODUCT(G18:G21)</f>
+        <v>256</v>
+      </c>
+      <c r="I22">
+        <f>G22*$C$7</f>
+        <v>2048</v>
+      </c>
+      <c r="J22" s="10">
+        <f>I22/60</f>
+        <v>34.133333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" s="9">
+        <f>PRODUCT(G25:G32)</f>
+        <v>256</v>
+      </c>
+      <c r="I33">
+        <f>G33*$C$7</f>
+        <v>2048</v>
+      </c>
+      <c r="J33" s="10">
+        <f>I33/60</f>
+        <v>34.133333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3622AC2-5950-5F4E-B417-DF99BB55B196}">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="123" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="I8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I14:I33)</f>
+        <v>9280</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I9/60</f>
+        <v>154.66666666666666</v>
+      </c>
+      <c r="K9" s="10">
+        <f>J9/24</f>
+        <v>6.4444444444444438</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="9">
+        <f>PRODUCT(G10:G14)</f>
+        <v>243</v>
+      </c>
+      <c r="I15">
+        <f>G15*$C$7</f>
+        <v>3888</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f>K15*60</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="G22" s="9">
+        <f>PRODUCT(G18:G21)</f>
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <f>G22*$C$7</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="9">
+        <f>PRODUCT(G25:G32)</f>
+        <v>256</v>
+      </c>
+      <c r="I33">
+        <f>G33*$C$7</f>
+        <v>4096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E669B474-FAF9-AA4D-B888-79EF2199E70B}">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I14:I33)</f>
+        <v>4864</v>
+      </c>
+      <c r="J9" s="10">
+        <f>I9/60</f>
+        <v>81.066666666666663</v>
+      </c>
+      <c r="K9" s="10">
+        <f>J9/24</f>
+        <v>3.3777777777777778</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="9">
+        <f>PRODUCT(G10:G14)</f>
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <f>G15*$C$7</f>
+        <v>512</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f>K15*60</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="G22" s="9">
+        <f>PRODUCT(G18:G21)</f>
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <f>G22*$C$7</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="9">
+        <f>PRODUCT(G25:G32)</f>
+        <v>256</v>
+      </c>
+      <c r="I33">
+        <f>G33*$C$7</f>
+        <v>4096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CFB6A9-9089-6B45-8A69-9A6E4308FE96}">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>3^4</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I14:I33)</f>
+        <v>557685</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="9">
+        <f>PRODUCT(G10:G14)</f>
+        <v>243</v>
+      </c>
+      <c r="I15">
+        <f>G15*$C$7</f>
+        <v>19683</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f>K15*60</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="G22" s="9">
+        <f>PRODUCT(G18:G21)</f>
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <f>G22*$C$7</f>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="9">
+        <f>PRODUCT(G25:G32)</f>
+        <v>6561</v>
+      </c>
+      <c r="I33">
+        <f>G33*$C$7</f>
+        <v>531441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD6EBCA-F978-0F4A-AD7F-52DB3E558E13}">
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>COUNTA(C3:D3)*COUNTA(C4:D4)*COUNTA(C5:D5)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>(D10-C10)/E10+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="0">(D11-C11)/E11+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>13.000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="G15" s="9">
+        <f>PRODUCT(G10:G14)</f>
+        <v>112320.00000000003</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <f>K15*60</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <f>(D18-C18)/E18+1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G21" si="1">(D19-C19)/E19+1</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="G22" s="9">
+        <f>PRODUCT(G18:G21)</f>
+        <v>2560000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>(D25-C25)/E25+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G32" si="2">(D26-C26)/E26+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>19.999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
         <v>13.000000000000002</v>
       </c>
     </row>
     <row r="33" spans="7:7">
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>PRODUCT(G25:G32)</f>
         <v>9360000</v>
       </c>
